--- a/tracker/ABIJITH S_Tracker.xlsx
+++ b/tracker/ABIJITH S_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git_Hub\project_toolkit\tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F04C49-DFB0-46A5-8D89-CCEFD75A8211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7CBA0D-7016-4596-AA68-9AD843211A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="180">
   <si>
     <t>Designer Name</t>
   </si>
@@ -173,9 +173,6 @@
     <t>KT &amp; Observation received by sujith</t>
   </si>
   <si>
-    <t xml:space="preserve">ABIJITH S </t>
-  </si>
-  <si>
     <t>3DPC completed and PRI request sent for Drawbar</t>
   </si>
   <si>
@@ -573,6 +570,12 @@
   </si>
   <si>
     <t>KT to Kavin on 2d Tool, Macro</t>
+  </si>
+  <si>
+    <t>Titan Series Update LC</t>
+  </si>
+  <si>
+    <t>July</t>
   </si>
 </sst>
 </file>
@@ -693,7 +696,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -710,22 +713,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1009,86 +1018,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M205"/>
+  <dimension ref="A1:M199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D197" sqref="D197"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="13.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.109375" style="1" customWidth="1"/>
-    <col min="9" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="19.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="41.33203125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="13.109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" style="13" customWidth="1"/>
+    <col min="3" max="4" width="13.44140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="18" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="8.88671875" style="13"/>
+    <col min="12" max="12" width="19.33203125" style="13" customWidth="1"/>
+    <col min="13" max="13" width="41.33203125" style="13" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="6" t="s">
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="9" t="s">
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1098,7 +1107,9 @@
       <c r="C3" s="3">
         <v>45750</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>169</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1115,9 +1126,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3">
+        <v>45750</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="1" t="s">
         <v>18</v>
@@ -1129,7 +1147,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,7 +1157,9 @@
       <c r="C5" s="3">
         <v>45751</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>170</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1156,9 +1176,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3">
+        <v>45751</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="H6" s="1" t="s">
         <v>16</v>
@@ -1167,7 +1194,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1177,7 +1204,9 @@
       <c r="C7" s="3">
         <v>45752</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1194,9 +1223,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45752</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="H8" s="1" t="s">
         <v>19</v>
@@ -1205,9 +1241,16 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3">
+        <v>45752</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="H9" s="1" t="s">
         <v>20</v>
@@ -1216,9 +1259,16 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3">
+        <v>45752</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="H10" s="1" t="s">
         <v>25</v>
@@ -1227,7 +1277,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1251,7 +1301,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1261,7 +1311,9 @@
       <c r="C12" s="3">
         <v>45754</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1278,9 +1330,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3">
+        <v>45754</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="H13" s="1" t="s">
         <v>27</v>
@@ -1289,9 +1348,16 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3">
+        <v>45754</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="H14" s="1" t="s">
         <v>28</v>
@@ -1300,9 +1366,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3">
+        <v>45754</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="H15" s="1" t="s">
         <v>29</v>
@@ -1311,7 +1384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1321,7 +1394,9 @@
       <c r="C16" s="3">
         <v>45755</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>167</v>
+      </c>
       <c r="E16" s="1" t="s">
         <v>18</v>
       </c>
@@ -1338,8 +1413,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
+    <row r="17" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="H17" s="1" t="s">
@@ -1349,8 +1429,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
+    <row r="18" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="H18" s="1" t="s">
@@ -1360,8 +1445,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
+    <row r="19" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="H19" s="1" t="s">
@@ -1371,8 +1461,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
+    <row r="20" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="H20" s="1" t="s">
@@ -1382,7 +1477,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -1392,7 +1487,9 @@
       <c r="C21" s="3">
         <v>45756</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="E21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1409,8 +1506,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
+    <row r="22" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="H22" s="1" t="s">
@@ -1420,8 +1522,13 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
+    <row r="23" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="H23" s="1" t="s">
@@ -1431,8 +1538,8 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+    <row r="24" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1441,7 +1548,9 @@
       <c r="C24" s="3">
         <v>45757</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>169</v>
+      </c>
       <c r="E24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1458,11 +1567,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="2"/>
+    <row r="25" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="H25" s="1" t="s">
@@ -1472,7 +1583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
@@ -1482,7 +1593,9 @@
       <c r="C26" s="3">
         <v>45758</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>170</v>
+      </c>
       <c r="E26" s="1" t="s">
         <v>18</v>
       </c>
@@ -1499,8 +1612,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B27" s="2"/>
+    <row r="27" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="H27" s="1" t="s">
@@ -1510,7 +1628,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
@@ -1534,7 +1652,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -1558,9 +1676,9 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>13</v>
@@ -1570,7 +1688,7 @@
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>44</v>
@@ -1585,31 +1703,41 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B31" s="2"/>
+    <row r="31" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="H31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I31" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B32" s="2"/>
+    <row r="32" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="H32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>13</v>
@@ -1619,10 +1747,10 @@
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I33" s="1">
         <v>4</v>
@@ -1634,42 +1762,57 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B34" s="2"/>
+    <row r="34" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="H34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B35" s="2"/>
+    <row r="35" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="H35" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I35" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B36" s="2"/>
+    <row r="36" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="H36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I36" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>13</v>
@@ -1679,10 +1822,10 @@
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="I37" s="1">
         <v>4</v>
@@ -1694,36 +1837,51 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B38" s="2"/>
+    <row r="38" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="H38" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I38" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B39" s="2"/>
+    <row r="39" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="H39" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I39" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B40" s="2"/>
+    <row r="40" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>13</v>
@@ -1733,10 +1891,10 @@
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I41" s="1">
         <v>5</v>
@@ -1748,42 +1906,57 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B42" s="2"/>
+    <row r="42" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="H42" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I42" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B43" s="2"/>
+    <row r="43" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="H43" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I43" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B44" s="2"/>
+    <row r="44" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="H44" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I44" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>13</v>
@@ -1793,10 +1966,10 @@
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I45" s="1">
         <v>6.5</v>
@@ -1808,20 +1981,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B46" s="2"/>
+    <row r="46" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="H46" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I46" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>13</v>
@@ -1831,10 +2009,10 @@
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I47" s="1">
         <v>1</v>
@@ -1846,53 +2024,73 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B48" s="2"/>
+    <row r="48" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="H48" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I48" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B49" s="2"/>
+    <row r="49" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="H49" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I49" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B50" s="2"/>
+    <row r="50" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="H50" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I50" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B51" s="2"/>
+    <row r="51" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="H51" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I51" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>13</v>
@@ -1914,9 +2112,9 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
     </row>
-    <row r="53" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>13</v>
@@ -1926,10 +2124,10 @@
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I53" s="1">
         <v>4</v>
@@ -1941,42 +2139,57 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B54" s="2"/>
+    <row r="54" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="H54" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I54" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B55" s="2"/>
+    <row r="55" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="H55" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I55" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B56" s="2"/>
+    <row r="56" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="H56" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I56" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>13</v>
@@ -1986,10 +2199,10 @@
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I57" s="1">
         <v>3.5</v>
@@ -2001,31 +2214,41 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B58" s="2"/>
+    <row r="58" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="H58" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I58" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B59" s="2"/>
+    <row r="59" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="H59" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I59" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>13</v>
@@ -2035,7 +2258,7 @@
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
@@ -2045,9 +2268,9 @@
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>13</v>
@@ -2057,10 +2280,10 @@
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I61" s="1">
         <v>3</v>
@@ -2072,31 +2295,41 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B62" s="2"/>
+    <row r="62" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="H62" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I62" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B63" s="2"/>
+    <row r="63" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="H63" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I63" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>13</v>
@@ -2106,7 +2339,7 @@
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
@@ -2116,9 +2349,9 @@
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>13</v>
@@ -2128,10 +2361,10 @@
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I65" s="1">
         <v>6</v>
@@ -2143,8 +2376,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B66" s="2"/>
+    <row r="66" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="H66" s="1" t="s">
@@ -2154,9 +2392,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>13</v>
@@ -2178,9 +2416,9 @@
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>13</v>
@@ -2190,7 +2428,7 @@
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
@@ -2200,9 +2438,9 @@
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>13</v>
@@ -2212,10 +2450,10 @@
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I69" s="1">
         <v>5</v>
@@ -2227,33 +2465,43 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B70" s="2"/>
+    <row r="70" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="H70" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I70" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B71" s="2"/>
+    <row r="71" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="H71" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I71" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>13</v>
@@ -2263,7 +2511,7 @@
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
@@ -2273,12 +2521,12 @@
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C73" s="3">
         <v>45778</v>
@@ -2294,22 +2542,22 @@
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C74" s="3">
         <v>45779</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I74" s="4">
         <v>6.25</v>
@@ -2321,33 +2569,38 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B75" s="2"/>
+    <row r="75" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="H75" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I75" s="1">
         <v>1.25</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C76" s="3">
         <v>45780</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I76" s="1">
         <v>6</v>
@@ -2359,23 +2612,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B77" s="2"/>
+    <row r="77" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="H77" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I77" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C78" s="3">
         <v>45781</v>
@@ -2394,22 +2652,22 @@
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C79" s="3">
         <v>45782</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I79" s="1">
         <v>5</v>
@@ -2421,44 +2679,54 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B80" s="2"/>
+    <row r="80" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="H80" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I80" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B81" s="2"/>
+    <row r="81" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="H81" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I81" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C82" s="3">
         <v>45783</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I82" s="1">
         <v>1</v>
@@ -2470,33 +2738,38 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B83" s="2"/>
+    <row r="83" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="H83" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I83" s="1">
         <v>6.5</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C84" s="3">
         <v>45784</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I84" s="1">
         <v>6</v>
@@ -2508,33 +2781,38 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B85" s="2"/>
+    <row r="85" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="H85" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I85" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C86" s="3">
         <v>45785</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I86" s="1">
         <v>7.5</v>
@@ -2546,22 +2824,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C87" s="3">
         <v>45786</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I87" s="1">
         <v>3.5</v>
@@ -2573,41 +2851,51 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B88" s="2"/>
+    <row r="88" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="H88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I88" s="1">
         <v>1.25</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B89" s="2"/>
+    <row r="89" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="H89" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I89" s="1">
         <v>2.75</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C90" s="3">
         <v>45787</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>43</v>
@@ -2622,19 +2910,19 @@
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C91" s="3">
         <v>45788</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>32</v>
@@ -2649,22 +2937,22 @@
       <c r="L91" s="5"/>
       <c r="M91" s="5"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C92" s="3">
         <v>45789</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I92" s="1">
         <v>7.5</v>
@@ -2676,22 +2964,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C93" s="3">
         <v>45790</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I93" s="1">
         <v>5</v>
@@ -2703,55 +2991,70 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B94" s="2"/>
+    <row r="94" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="H94" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I94" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B95" s="2"/>
+    <row r="95" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="H95" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I95" s="1">
         <v>0.75</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B96" s="2"/>
+    <row r="96" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="H96" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I96" s="1">
         <v>0.75</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C97" s="3">
         <v>45791</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I97" s="1">
         <v>1.5</v>
@@ -2763,44 +3066,54 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B98" s="2"/>
+    <row r="98" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="H98" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I98" s="1">
         <v>0.75</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B99" s="2"/>
+    <row r="99" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="H99" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I99" s="1">
         <v>5.25</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C100" s="3">
         <v>45792</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I100" s="1">
         <v>5.5</v>
@@ -2812,33 +3125,38 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B101" s="2"/>
+    <row r="101" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="H101" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I101" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C102" s="3">
         <v>45793</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I102" s="1">
         <v>7.5</v>
@@ -2850,22 +3168,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C103" s="3">
         <v>45794</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I103" s="1">
         <v>7.5</v>
@@ -2877,19 +3195,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C104" s="3">
         <v>45795</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>32</v>
@@ -2904,22 +3222,22 @@
       <c r="L104" s="5"/>
       <c r="M104" s="5"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C105" s="3">
         <v>45796</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I105" s="1">
         <v>7.5</v>
@@ -2931,22 +3249,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C106" s="3">
         <v>45797</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I106" s="1">
         <v>7.5</v>
@@ -2958,22 +3276,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C107" s="3">
         <v>45798</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I107" s="1">
         <v>7.5</v>
@@ -2985,22 +3303,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C108" s="3">
         <v>45799</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I108" s="1">
         <v>2</v>
@@ -3009,23 +3327,33 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B109" s="2"/>
+    <row r="109" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="H109" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I109" s="1">
         <v>2.5</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B110" s="2"/>
+    <row r="110" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="H110" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I110" s="1">
         <v>3</v>
@@ -3034,22 +3362,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C111" s="3">
         <v>45800</v>
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I111" s="1">
         <v>7.5</v>
@@ -3061,22 +3389,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C112" s="3">
         <v>45801</v>
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I112" s="1">
         <v>7.5</v>
@@ -3088,19 +3416,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C113" s="3">
         <v>45802</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>32</v>
@@ -3115,28 +3443,28 @@
       <c r="L113" s="5"/>
       <c r="M113" s="5"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C114" s="3">
         <v>45803</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F114" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G114" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G114" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="H114" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I114" s="1">
         <v>7.5</v>
@@ -3148,22 +3476,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C115" s="3">
         <v>45804</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I115" s="1">
         <v>7.5</v>
@@ -3175,93 +3503,93 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C116" s="3">
         <v>45805</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H116" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H116" s="1" t="s">
+      <c r="I116" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="J116" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="I116" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="J116" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="L116" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="C117" s="3">
         <v>45806</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H117" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H117" s="1" t="s">
+      <c r="I117" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="J117" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="I117" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="J117" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="L117" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="C118" s="3">
         <v>45807</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H118" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H118" s="1" t="s">
+      <c r="I118" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="J118" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="I118" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="J118" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="L118" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="C119" s="3">
         <v>45808</v>
@@ -3280,12 +3608,12 @@
       <c r="K119" s="5"/>
       <c r="L119" s="5"/>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C120" s="3">
         <v>45809</v>
@@ -3306,24 +3634,24 @@
       <c r="K120" s="5"/>
       <c r="L120" s="5"/>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C121" s="3">
         <v>45810</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I121" s="1">
         <v>6.5</v>
@@ -3335,35 +3663,40 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B122" s="2"/>
+    <row r="122" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="H122" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I122" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C123" s="3">
         <v>45811</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I123" s="1">
         <v>5</v>
@@ -3375,46 +3708,56 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B124" s="2"/>
+    <row r="124" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="H124" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I124" s="1">
         <v>0.75</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B125" s="2"/>
+    <row r="125" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="H125" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I125" s="1">
         <v>1.75</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C126" s="3">
         <v>45812</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E126" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H126" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="I126" s="1">
         <v>6.5</v>
@@ -3426,38 +3769,43 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B127" s="2"/>
+    <row r="127" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I127" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C128" s="3">
         <v>45813</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E128" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H128" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="I128" s="1">
         <v>4.5</v>
@@ -3469,39 +3817,44 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B129" s="2"/>
+    <row r="129" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H129" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="I129" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C130" s="3">
         <v>45814</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E130" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H130" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H130" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="I130" s="1">
         <v>7.5</v>
       </c>
@@ -3512,12 +3865,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C131" s="3">
         <v>45815</v>
@@ -3526,10 +3879,10 @@
         <v>43</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I131" s="1">
         <v>5</v>
@@ -3541,23 +3894,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B132" s="2"/>
+    <row r="132" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="H132" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I132" s="1">
         <v>2.5</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C133" s="3">
         <v>45816</v>
@@ -3578,24 +3936,24 @@
       <c r="K133" s="5"/>
       <c r="L133" s="5"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C134" s="3">
         <v>45817</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I134" s="1">
         <v>6.5</v>
@@ -3607,35 +3965,40 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B135" s="2"/>
+    <row r="135" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="H135" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I135" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C136" s="3">
         <v>45818</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I136" s="1">
         <v>7.5</v>
@@ -3647,24 +4010,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C137" s="3">
         <v>45819</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I137" s="1">
         <v>6.5</v>
@@ -3676,38 +4039,43 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B138" s="2"/>
+    <row r="138" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I138" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C139" s="3">
         <v>45820</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I139" s="1">
         <v>7.5</v>
@@ -3719,24 +4087,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C140" s="3">
         <v>45821</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I140" s="1">
         <v>1</v>
@@ -3748,12 +4116,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B141" s="2"/>
+    <row r="141" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="H141" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I141" s="1">
         <v>5.5</v>
@@ -3762,23 +4135,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B142" s="2"/>
+    <row r="142" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="H142" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I142" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C143" s="3">
         <v>45822</v>
@@ -3799,12 +4177,12 @@
       <c r="K143" s="5"/>
       <c r="L143" s="5"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C144" s="3">
         <v>45823</v>
@@ -3825,22 +4203,22 @@
       <c r="K144" s="5"/>
       <c r="L144" s="5"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C145" s="3">
         <v>45824</v>
       </c>
       <c r="D145" s="3"/>
       <c r="E145" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I145" s="1">
         <v>7.5</v>
@@ -3852,22 +4230,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C146" s="3">
         <v>45825</v>
       </c>
       <c r="D146" s="3"/>
       <c r="E146" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I146" s="1">
         <v>7.5</v>
@@ -3879,22 +4257,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C147" s="3">
         <v>45826</v>
       </c>
       <c r="D147" s="3"/>
       <c r="E147" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I147" s="1">
         <v>7.5</v>
@@ -3906,22 +4284,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C148" s="3">
         <v>45827</v>
       </c>
       <c r="D148" s="3"/>
       <c r="E148" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I148" s="1">
         <v>4.5</v>
@@ -3933,33 +4311,38 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B149" s="2"/>
+    <row r="149" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="H149" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I149" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C150" s="3">
         <v>45828</v>
       </c>
       <c r="D150" s="3"/>
       <c r="E150" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J150" s="1">
         <v>7.5</v>
@@ -3968,33 +4351,38 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B151" s="2"/>
+    <row r="151" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="H151" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I151" s="1">
         <v>0.75</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C152" s="3">
         <v>45829</v>
       </c>
       <c r="D152" s="3"/>
       <c r="E152" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I152" s="1">
         <v>5.25</v>
@@ -4006,34 +4394,44 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B153" s="2"/>
+    <row r="153" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="H153" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I153" s="1">
         <v>0.75</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B154" s="2"/>
+    <row r="154" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="H154" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I154" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C155" s="3">
         <v>45830</v>
@@ -4052,33 +4450,38 @@
       <c r="K155" s="5"/>
       <c r="L155" s="5"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C156" s="3">
         <v>45831</v>
       </c>
       <c r="D156" s="3"/>
       <c r="E156" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I156" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B157" s="2"/>
+    <row r="157" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="H157" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I157" s="1">
         <v>7.5</v>
@@ -4090,22 +4493,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C158" s="3">
         <v>45832</v>
       </c>
       <c r="D158" s="3"/>
       <c r="E158" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I158" s="1">
         <v>7</v>
@@ -4117,36 +4520,41 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B159" s="2"/>
+    <row r="159" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I159" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C160" s="3">
         <v>45833</v>
       </c>
       <c r="D160" s="3"/>
       <c r="E160" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I160" s="1">
         <v>5.75</v>
@@ -4158,44 +4566,54 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B161" s="2"/>
+    <row r="161" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="H161" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I161" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B162" s="2"/>
+    <row r="162" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="H162" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I162" s="1">
         <v>0.75</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C163" s="3">
         <v>45834</v>
       </c>
       <c r="D163" s="3"/>
       <c r="E163" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I163" s="1">
         <v>7.5</v>
@@ -4207,22 +4625,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C164" s="3">
         <v>45835</v>
       </c>
       <c r="D164" s="3"/>
       <c r="E164" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I164" s="1">
         <v>7.5</v>
@@ -4234,22 +4652,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C165" s="3">
         <v>45836</v>
       </c>
       <c r="D165" s="3"/>
       <c r="E165" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I165" s="1">
         <v>7.5</v>
@@ -4261,22 +4679,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C166" s="3">
         <v>45837</v>
       </c>
       <c r="D166" s="3"/>
       <c r="E166" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I166" s="1">
         <v>7.5</v>
@@ -4288,16 +4706,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="B167" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C167" s="3">
         <v>45838</v>
       </c>
       <c r="D167" s="3"/>
       <c r="H167" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I167" s="1">
         <v>0.75</v>
@@ -4306,18 +4727,20 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B168" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I168" s="1">
         <v>6.75</v>
@@ -4326,22 +4749,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="C169" s="3">
         <v>45839</v>
       </c>
       <c r="D169" s="3"/>
       <c r="E169" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I169" s="1">
         <v>7.5</v>
@@ -4353,22 +4776,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="C170" s="3">
         <v>45840</v>
       </c>
       <c r="D170" s="3"/>
       <c r="E170" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I170" s="1">
         <v>7.5</v>
@@ -4380,22 +4803,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="C171" s="3">
         <v>45841</v>
       </c>
       <c r="D171" s="3"/>
       <c r="E171" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I171" s="1">
         <v>1</v>
@@ -4407,59 +4830,64 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B172" s="2"/>
+    <row r="172" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="H172" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I172" s="1">
         <v>6.5</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="C173" s="3">
         <v>45842</v>
       </c>
       <c r="D173" s="3"/>
       <c r="E173" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="C174" s="3">
         <v>45843</v>
       </c>
       <c r="D174" s="3"/>
       <c r="E174" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="C175" s="3">
         <v>45844</v>
@@ -4480,24 +4908,24 @@
       <c r="K175" s="5"/>
       <c r="L175" s="5"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="C176" s="3">
         <v>45845</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I176" s="1">
         <v>7</v>
@@ -4509,35 +4937,40 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B177" s="2"/>
+    <row r="177" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="H177" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I177" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="C178" s="3">
         <v>45846</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I178" s="1">
         <v>7</v>
@@ -4549,35 +4982,40 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B179" s="2"/>
+    <row r="179" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="H179" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I179" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="C180" s="3">
         <v>45847</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I180" s="1">
         <v>7.5</v>
@@ -4589,24 +5027,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="C181" s="3">
         <v>45848</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I181" s="1">
         <v>3.5</v>
@@ -4618,57 +5056,72 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B182" s="2"/>
+    <row r="182" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="H182" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I182" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B183" s="2"/>
+    <row r="183" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="H183" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I183" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B184" s="2"/>
+    <row r="184" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="H184" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I184" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="C185" s="3">
         <v>45849</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I185" s="1">
         <v>5.5</v>
@@ -4677,34 +5130,48 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B186" s="2"/>
-      <c r="C186" s="3"/>
+    <row r="186" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C186" s="3">
+        <v>45849</v>
+      </c>
       <c r="D186" s="3"/>
       <c r="H186" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I186" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B187" s="2"/>
-      <c r="C187" s="3"/>
+    <row r="187" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C187" s="3">
+        <v>45849</v>
+      </c>
       <c r="D187" s="3"/>
       <c r="H187" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I187" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="C188" s="3">
         <v>45850</v>
@@ -4713,7 +5180,7 @@
         <v>43</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I188" s="1">
         <v>4</v>
@@ -4725,12 +5192,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="C189" s="3">
         <v>45851</v>
@@ -4749,21 +5216,21 @@
       <c r="K189" s="5"/>
       <c r="L189" s="5"/>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="C190" s="3">
         <v>45852</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I190" s="1">
         <v>3.25</v>
@@ -4775,54 +5242,75 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B191" s="2"/>
-      <c r="C191" s="3"/>
+    <row r="191" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C191" s="3">
+        <v>45852</v>
+      </c>
       <c r="D191" s="3"/>
       <c r="H191" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I191" s="1">
         <v>0.75</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B192" s="2"/>
-      <c r="C192" s="3"/>
+    <row r="192" spans="1:12" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C192" s="3">
+        <v>45852</v>
+      </c>
       <c r="D192" s="3"/>
       <c r="H192" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I192" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B193" s="2"/>
-      <c r="C193" s="3"/>
+    <row r="193" spans="1:10" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C193" s="3">
+        <v>45852</v>
+      </c>
       <c r="D193" s="3"/>
       <c r="H193" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I193" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="C194" s="3">
         <v>45853</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I194" s="1">
         <v>4.5</v>
@@ -4831,87 +5319,102 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B195" s="2"/>
-      <c r="C195" s="3"/>
+    <row r="195" spans="1:10" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C195" s="3">
+        <v>45853</v>
+      </c>
       <c r="D195" s="3"/>
       <c r="H195" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I195" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B196" s="2"/>
-      <c r="C196" s="3"/>
+    <row r="196" spans="1:10" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C196" s="3">
+        <v>45853</v>
+      </c>
       <c r="D196" s="3"/>
       <c r="H196" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I196" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B197" s="2"/>
-      <c r="C197" s="3"/>
+    <row r="197" spans="1:10" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C197" s="3">
+        <v>45854</v>
+      </c>
       <c r="D197" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B198" s="2"/>
-      <c r="C198" s="3"/>
-      <c r="D198" s="3"/>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B199" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I197" s="1">
+        <v>5</v>
+      </c>
+      <c r="J197" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" s="11" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C198" s="3">
+        <v>45854</v>
+      </c>
+      <c r="D198" s="12"/>
+      <c r="H198" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="I198" s="11">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" s="1" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B199" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B200" s="2"/>
-      <c r="C200" s="3"/>
-      <c r="D200" s="3"/>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B201" s="2"/>
-      <c r="C201" s="3"/>
-      <c r="D201" s="3"/>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B202" s="2"/>
-      <c r="C202" s="3"/>
-      <c r="D202" s="3"/>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B203" s="2"/>
-      <c r="C203" s="3"/>
-      <c r="D203" s="3"/>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B204" s="2"/>
-      <c r="C204" s="3"/>
-      <c r="D204" s="3"/>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B205" s="2"/>
-      <c r="C205" s="3"/>
-      <c r="D205" s="3"/>
-    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tracker/ABIJITH S_Tracker.xlsx
+++ b/tracker/ABIJITH S_Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git_Hub\project_toolkit\tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B306D81-028D-4823-BEA9-27E866B00098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7794EC02-13E6-4217-8586-2EBD5DADFCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="191">
   <si>
     <t>Designer Name</t>
   </si>
@@ -832,22 +832,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Treffer" xfId="1" xr:uid="{42B9AD77-3140-43E5-96EB-8F0F28E28D0C}"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1123,10 +1108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M208"/>
+  <dimension ref="A1:M213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A202" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E214" sqref="E214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10072,6 +10057,217 @@
         <v>30</v>
       </c>
     </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B209" s="1" t="str">
+        <f t="shared" ref="B209" si="26">TEXT(C209, "mmmm")</f>
+        <v>July</v>
+      </c>
+      <c r="C209" s="7">
+        <v>45863</v>
+      </c>
+      <c r="D209" s="7" t="str">
+        <f t="shared" ref="D209" si="27">TEXT(C209, "ddd")</f>
+        <v>Fri</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F209" s="1"/>
+      <c r="G209" s="1"/>
+      <c r="H209" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I209" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="J209" s="1">
+        <f>IF(OR(LOWER(E209)="holiday",LOWER(E209)="leave"),"-",
+   IF(COUNTIF(C$2:C209,C209)=1,SUMIF(C:C,C209,I:I),"")
+)</f>
+        <v>7.5</v>
+      </c>
+      <c r="K209" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L209" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M209" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B210" s="1" t="str">
+        <f t="shared" ref="B210" si="28">TEXT(C210, "mmmm")</f>
+        <v>July</v>
+      </c>
+      <c r="C210" s="7">
+        <v>45864</v>
+      </c>
+      <c r="D210" s="7" t="str">
+        <f t="shared" ref="D210" si="29">TEXT(C210, "ddd")</f>
+        <v>Sat</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+      <c r="H210" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I210" s="1">
+        <v>1</v>
+      </c>
+      <c r="J210" s="1">
+        <f>IF(OR(LOWER(E210)="holiday",LOWER(E210)="leave"),"-",
+   IF(COUNTIF(C$2:C210,C210)=1,SUMIF(C:C,C210,I:I),"")
+)</f>
+        <v>7.5</v>
+      </c>
+      <c r="K210" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L210" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M210" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B211" s="1" t="str">
+        <f t="shared" ref="B211" si="30">TEXT(C211, "mmmm")</f>
+        <v>July</v>
+      </c>
+      <c r="C211" s="7">
+        <v>45864</v>
+      </c>
+      <c r="D211" s="7" t="str">
+        <f t="shared" ref="D211" si="31">TEXT(C211, "ddd")</f>
+        <v>Sat</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+      <c r="H211" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I211" s="1">
+        <v>5</v>
+      </c>
+      <c r="J211" s="1" t="str">
+        <f>IF(OR(LOWER(E211)="holiday",LOWER(E211)="leave"),"-",
+   IF(COUNTIF(C$2:C211,C211)=1,SUMIF(C:C,C211,I:I),"")
+)</f>
+        <v/>
+      </c>
+      <c r="K211" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L211" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M211" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B212" s="1" t="str">
+        <f t="shared" ref="B212" si="32">TEXT(C212, "mmmm")</f>
+        <v>July</v>
+      </c>
+      <c r="C212" s="7">
+        <v>45864</v>
+      </c>
+      <c r="D212" s="7" t="str">
+        <f t="shared" ref="D212" si="33">TEXT(C212, "ddd")</f>
+        <v>Sat</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F212" s="1"/>
+      <c r="G212" s="1"/>
+      <c r="H212" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I212" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J212" s="1" t="str">
+        <f>IF(OR(LOWER(E212)="holiday",LOWER(E212)="leave"),"-",
+   IF(COUNTIF(C$2:C212,C212)=1,SUMIF(C:C,C212,I:I),"")
+)</f>
+        <v/>
+      </c>
+      <c r="K212" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L212" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M212" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B213" s="1" t="str">
+        <f t="shared" ref="B213" si="34">TEXT(C213, "mmmm")</f>
+        <v>July</v>
+      </c>
+      <c r="C213" s="7">
+        <v>45865</v>
+      </c>
+      <c r="D213" s="7" t="str">
+        <f t="shared" ref="D213" si="35">TEXT(C213, "ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H213" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I213" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J213" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K213" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L213" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M213" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10083,8 +10279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A7C568-4F34-413A-B92B-04000DA0468C}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10585,11 +10781,11 @@
       </c>
       <c r="C5" s="1">
         <f>SUMIFS(Sheet1!J:J,Sheet1!A:A,$A5,Sheet1!B:B,$B5,Sheet1!E:E,"&lt;&gt;Holiday",Sheet1!E:E,"&lt;&gt;Leave")</f>
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="D5" s="1" cm="1">
         <f t="array" ref="D5">ROWS(_xlfn.UNIQUE(_xlfn._xlws.FILTER(Sheet1!C:C,(Sheet1!A:A=$A5)*(Sheet1!B:B=$B5)*(Sheet1!E:E&lt;&gt;"Holiday"))))*7.5</f>
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="E5" s="1">
         <f>SUMIFS(Sheet1!I:I,
@@ -10623,7 +10819,7 @@
           Sheet1!B:B,$B5,
           Sheet1!E:E,F1,
           Sheet1!F:F,K1)</f>
-        <v>146.75</v>
+        <v>159.25</v>
       </c>
       <c r="G5" s="1">
         <f>SUMIFS(Sheet1!I:I,
@@ -10681,7 +10877,7 @@
         Sheet1!A:A,$A5,
         Sheet1!B:B,$B5,
         Sheet1!E:E,J1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5" s="1">
         <f>SUMIFS(Sheet1!I:I,
@@ -10709,7 +10905,7 @@
         Sheet1!A:A,$A5,
         Sheet1!B:B,$B5,
         Sheet1!E:E,N1)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O5" s="1" t="str">
         <f>COUNTIFS(Sheet1!A:A,$A5,Sheet1!B:B,$B5,Sheet1!E:E,O1)*7.5 &amp;
